--- a/Data/jumia_excel.xlsx
+++ b/Data/jumia_excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="CreateAccountData" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,7 @@
     <t>Mostafa</t>
   </si>
   <si>
-    <t>jodebik912@oncloud.ws</t>
-  </si>
-  <si>
     <t>50505050Hema</t>
-  </si>
-  <si>
-    <t>1017655933</t>
   </si>
   <si>
     <t>Total Price</t>
@@ -59,6 +53,12 @@
   <si>
     <t>Samsung Galaxy A70 - 6.7-inch 128GB/6GB Dual SIM
 4G Mobile Phone - White</t>
+  </si>
+  <si>
+    <t>1017655932</t>
+  </si>
+  <si>
+    <t>tespesaltu@enayu.com</t>
   </si>
 </sst>
 </file>
@@ -414,15 +414,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="2" max="2" width="24.125" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
     <col min="4" max="4" width="17.375" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
   </cols>
@@ -452,13 +452,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -486,18 +486,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
